--- a/SortProfessor/SortProfData.xlsx
+++ b/SortProfessor/SortProfData.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rosehulman-my.sharepoint.com/personal/lakstise_rose-hulman_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FE769B-DB68-4019-BEC0-7A6EF63FDA41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{B5FE769B-DB68-4019-BEC0-7A6EF63FDA41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA0EE2F0-76BF-42F3-9A62-6E95F09BF5C5}"/>
   <bookViews>
-    <workbookView xWindow="29715" yWindow="1680" windowWidth="14400" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddStudent" sheetId="1" r:id="rId1"/>
-    <sheet name="AddProf" sheetId="2" r:id="rId2"/>
-    <sheet name="AddSchool" sheetId="3" r:id="rId3"/>
-    <sheet name="AddSurvey" sheetId="4" r:id="rId4"/>
-    <sheet name="AddClass" sheetId="5" r:id="rId5"/>
+    <sheet name="AddSchool" sheetId="3" r:id="rId2"/>
+    <sheet name="AddProf" sheetId="2" r:id="rId3"/>
+    <sheet name="AddClass" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Username</t>
   </si>
@@ -58,21 +57,6 @@
     <t>schoolName</t>
   </si>
   <si>
-    <t>profID</t>
-  </si>
-  <si>
-    <t>studentUsername</t>
-  </si>
-  <si>
-    <t>houseName</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>JerryIsCool</t>
   </si>
   <si>
@@ -155,6 +139,108 @@
   </si>
   <si>
     <t>garfunkle</t>
+  </si>
+  <si>
+    <t>Sriram</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Rose-Hulman</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Chenette</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Boutell</t>
+  </si>
+  <si>
+    <t>Hogwarts</t>
+  </si>
+  <si>
+    <t>Albus</t>
+  </si>
+  <si>
+    <t>Dumbledore</t>
+  </si>
+  <si>
+    <t>Remus</t>
+  </si>
+  <si>
+    <t>Lupin</t>
+  </si>
+  <si>
+    <t>Severus</t>
+  </si>
+  <si>
+    <t>Snape</t>
+  </si>
+  <si>
+    <t>Rubeus</t>
+  </si>
+  <si>
+    <t>Hagrid</t>
+  </si>
+  <si>
+    <t>Filius</t>
+  </si>
+  <si>
+    <t>Flitwick</t>
+  </si>
+  <si>
+    <t>Minerva</t>
+  </si>
+  <si>
+    <t>McGonagall</t>
+  </si>
+  <si>
+    <t>Horace</t>
+  </si>
+  <si>
+    <t>Slughorn</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>profFName</t>
+  </si>
+  <si>
+    <t>profLName</t>
+  </si>
+  <si>
+    <t>Potions</t>
+  </si>
+  <si>
+    <t>CSSE333</t>
+  </si>
+  <si>
+    <t>CSSE304</t>
+  </si>
+  <si>
+    <t>Charms</t>
+  </si>
+  <si>
+    <t>Transfiguration</t>
+  </si>
+  <si>
+    <t>CSSE132</t>
   </si>
 </sst>
 </file>
@@ -509,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,125 +622,125 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>8675309</v>
@@ -666,37 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEA30F9-78AC-4F8A-817E-8CDD31FB7689}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BF57-93CA-4500-8DC8-C60FD36477AD}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C65BF57-93CA-4500-8DC8-C60FD36477AD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,36 +766,177 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40D2EFF-ED0E-4718-AA04-A895E7407513}">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEA30F9-78AC-4F8A-817E-8CDD31FB7689}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -743,16 +944,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E911D65-4544-4791-BAD9-73DCDADA8FE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
